--- a/LR3/table_1_85.xlsx
+++ b/LR3/table_1_85.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB63224D-E0BD-4D1C-8539-C036DD076B38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13F4E93-DC12-4F93-B5D9-04346E98CD3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Площадь, кв.м.</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
-  </si>
-  <si>
-    <t>fghdljfghkdf</t>
   </si>
 </sst>
 </file>
@@ -523,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2237,11 +2234,6 @@
         <v>6545.0000000000009</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>51</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LR3/table_1_85.xlsx
+++ b/LR3/table_1_85.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13F4E93-DC12-4F93-B5D9-04346E98CD3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C146DCF-B3E7-4DD3-BBFA-C66871BCEB7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LR3/table_1_85.xlsx
+++ b/LR3/table_1_85.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C146DCF-B3E7-4DD3-BBFA-C66871BCEB7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF103C12-C672-46A0-B0D8-57E6089D50F2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -150,9 +144,6 @@
     <t>Хамидуллин</t>
   </si>
   <si>
-    <t>Черемухин</t>
-  </si>
-  <si>
     <t>Шайхутдинов</t>
   </si>
   <si>
@@ -184,6 +175,9 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Черёмухин</t>
   </si>
 </sst>
 </file>
@@ -549,10 +543,10 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -573,7 +567,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>4</v>
@@ -614,11 +608,11 @@
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <f>I3*H3</f>
+        <f>H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <f>J3+E3</f>
+        <f>E3+J3</f>
         <v>6545.0000000000009</v>
       </c>
     </row>
@@ -635,7 +629,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f>$D$3</f>
+        <f>D3</f>
         <v>93.500000000000014</v>
       </c>
       <c r="E4" s="1">
@@ -659,11 +653,11 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="3">J4+E4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>6498.2500000000009</v>
       </c>
     </row>
@@ -680,7 +674,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D34" si="6">$D$3</f>
+        <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>93.500000000000014</v>
       </c>
       <c r="E5" s="1">
@@ -950,7 +944,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f>$D$3</f>
+        <f t="shared" si="6"/>
         <v>93.500000000000014</v>
       </c>
       <c r="E11" s="1">
@@ -1618,7 +1612,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1933,7 +1927,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1978,7 +1972,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2023,14 +2017,14 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>$D$3/2</f>
+        <f>D3/2</f>
         <v>46.750000000000007</v>
       </c>
       <c r="E35" s="1">
@@ -2068,14 +2062,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">$D$3/2</f>
+        <f>D3/2</f>
         <v>46.750000000000007</v>
       </c>
       <c r="E36" s="1">
@@ -2113,14 +2107,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>46.750000000000007</v>
       </c>
       <c r="E37" s="1">
@@ -2158,14 +2152,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>46.750000000000007</v>
       </c>
       <c r="E38" s="1">
@@ -2202,8 +2196,8 @@
         <v>8</v>
       </c>
       <c r="C40" s="3">
-        <f>FLOOR(SUM(K3:K38),0.1)</f>
-        <v>199989.7</v>
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>199989</v>
       </c>
       <c r="D40" s="1"/>
     </row>
@@ -2218,7 +2212,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2227,7 +2221,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
@@ -2236,5 +2230,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LR3/table_1_85.xlsx
+++ b/LR3/table_1_85.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF103C12-C672-46A0-B0D8-57E6089D50F2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9A10B8-63A8-4626-946D-B6D11723086A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
